--- a/Scoring BEST.xlsx
+++ b/Scoring BEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackfrancis/Documents/GitHub/DHCA_Robotics_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C3A391-AC5E-9B4B-95B1-25F6A02CD7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C26252E-947E-F848-BC88-BAE4DB11360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{8F90926C-F95E-5B4C-B0B5-A6EEA18815D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{8F90926C-F95E-5B4C-B0B5-A6EEA18815D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Robot Scoring Opportunities" sheetId="2" r:id="rId1"/>
@@ -690,7 +690,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
